--- a/hsr/hsr_updated/serval.xlsx
+++ b/hsr/hsr_updated/serval.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,16 +502,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="E2" t="n">
         <v>104</v>
@@ -543,37 +543,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="C3" t="n">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="E3" t="n">
         <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9659090909090909</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="J3" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9596774193548387</v>
+        <v>0.3822525597269625</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B4" t="n">
-        <v>355</v>
+        <v>517</v>
       </c>
       <c r="C4" t="n">
-        <v>253</v>
+        <v>368</v>
       </c>
       <c r="D4" t="n">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -602,19 +602,19 @@
         <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4624277456647399</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H4" t="n">
         <v>46</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.2787878787878788</v>
       </c>
       <c r="J4" t="n">
         <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4609053497942387</v>
+        <v>0.2765432098765432</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -625,16 +625,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>468</v>
+        <v>630</v>
       </c>
       <c r="C5" t="n">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="D5" t="n">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="E5" t="n">
         <v>104</v>
@@ -643,19 +643,19 @@
         <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>0.316205533596838</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="H5" t="n">
         <v>46</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3172413793103449</v>
+        <v>0.2180094786729858</v>
       </c>
       <c r="J5" t="n">
         <v>113</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3183098591549296</v>
+        <v>0.218568665377176</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -666,37 +666,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>580</v>
+        <v>742</v>
       </c>
       <c r="C6" t="n">
-        <v>412</v>
+        <v>528</v>
       </c>
       <c r="D6" t="n">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2372372372372372</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H6" t="n">
         <v>46</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2408376963350785</v>
+        <v>0.178988326848249</v>
       </c>
       <c r="J6" t="n">
         <v>112</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2393162393162393</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B7" t="n">
-        <v>692</v>
+        <v>854</v>
       </c>
       <c r="C7" t="n">
-        <v>492</v>
+        <v>608</v>
       </c>
       <c r="D7" t="n">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="E7" t="n">
         <v>104</v>
@@ -725,19 +725,19 @@
         <v>80</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1941747572815534</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="H7" t="n">
         <v>46</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1940928270042194</v>
+        <v>0.1518151815181518</v>
       </c>
       <c r="J7" t="n">
         <v>112</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1931034482758621</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -748,83 +748,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
-        <v>804</v>
+        <v>917</v>
       </c>
       <c r="C8" t="n">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="D8" t="n">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="E8" t="n">
         <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="H8" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1590106007067138</v>
+        <v>0.07163323782234957</v>
       </c>
       <c r="J8" t="n">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K8" t="n">
-        <v>0.161849710982659</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>80</v>
-      </c>
-      <c r="B9" t="n">
-        <v>917</v>
-      </c>
-      <c r="C9" t="n">
-        <v>652</v>
-      </c>
-      <c r="D9" t="n">
-        <v>374</v>
-      </c>
-      <c r="E9" t="n">
-        <v>104</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1398601398601399</v>
-      </c>
-      <c r="H9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1402439024390244</v>
-      </c>
-      <c r="J9" t="n">
-        <v>113</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.140547263681592</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/hsr/hsr_updated/serval.xlsx
+++ b/hsr/hsr_updated/serval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,16 +502,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>293</v>
+        <v>124</v>
       </c>
       <c r="C2" t="n">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>104</v>
@@ -543,37 +543,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>405</v>
+        <v>243</v>
       </c>
       <c r="C3" t="n">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="D3" t="n">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
         <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.9659090909090909</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3865546218487395</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J3" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3822525597269625</v>
+        <v>0.9596774193548387</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>517</v>
+        <v>355</v>
       </c>
       <c r="C4" t="n">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="D4" t="n">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -602,19 +602,19 @@
         <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.4624277456647399</v>
       </c>
       <c r="H4" t="n">
         <v>46</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2787878787878788</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="J4" t="n">
         <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2765432098765432</v>
+        <v>0.4609053497942387</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -625,16 +625,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>630</v>
+        <v>468</v>
       </c>
       <c r="C5" t="n">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="D5" t="n">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
         <v>104</v>
@@ -643,19 +643,19 @@
         <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.316205533596838</v>
       </c>
       <c r="H5" t="n">
         <v>46</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2180094786729858</v>
+        <v>0.3172413793103449</v>
       </c>
       <c r="J5" t="n">
         <v>113</v>
       </c>
       <c r="K5" t="n">
-        <v>0.218568665377176</v>
+        <v>0.3183098591549296</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -666,37 +666,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>742</v>
+        <v>580</v>
       </c>
       <c r="C6" t="n">
-        <v>528</v>
+        <v>412</v>
       </c>
       <c r="D6" t="n">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.2372372372372372</v>
       </c>
       <c r="H6" t="n">
         <v>46</v>
       </c>
       <c r="I6" t="n">
-        <v>0.178988326848249</v>
+        <v>0.2408376963350785</v>
       </c>
       <c r="J6" t="n">
         <v>112</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>854</v>
+        <v>692</v>
       </c>
       <c r="C7" t="n">
-        <v>608</v>
+        <v>492</v>
       </c>
       <c r="D7" t="n">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="E7" t="n">
         <v>104</v>
@@ -725,19 +725,19 @@
         <v>80</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="H7" t="n">
         <v>46</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1518151815181518</v>
+        <v>0.1940928270042194</v>
       </c>
       <c r="J7" t="n">
         <v>112</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -748,42 +748,83 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>917</v>
+        <v>804</v>
       </c>
       <c r="C8" t="n">
-        <v>652</v>
+        <v>572</v>
       </c>
       <c r="D8" t="n">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="E8" t="n">
         <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07236842105263158</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07163323782234957</v>
+        <v>0.1590106007067138</v>
       </c>
       <c r="J8" t="n">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07377049180327869</v>
+        <v>0.161849710982659</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>80</v>
+      </c>
+      <c r="B9" t="n">
+        <v>917</v>
+      </c>
+      <c r="C9" t="n">
+        <v>652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>374</v>
+      </c>
+      <c r="E9" t="n">
+        <v>104</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1398601398601399</v>
+      </c>
+      <c r="H9" t="n">
+        <v>46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1402439024390244</v>
+      </c>
+      <c r="J9" t="n">
+        <v>113</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.140547263681592</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
